--- a/docs/assets/disciplinas/LOM3230.xlsx
+++ b/docs/assets/disciplinas/LOM3230.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar as técnicas experimentais de caracterização de propriedades elétricas, magnéticas, térmicas e ópticas de materiais.</t>
+    <t>5840726 - Cristina Bormio Nunes</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840726 - Cristina Bormio Nunes</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Estudo das técnicas de caracterização de propriedades elétricas, magnéticas, térmicas e ópticas de materiais.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,12 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Propriedades elétricas: condutividade elétrica em metais puros, ligas metálicas, semicondutores, isolantes e supercondutores; efeito Hall; caracterização de junções pn e heterojunções. Propriedades dielétricas: ferroeletricidade, piezoeletricidade e eletrostrição. Condução elétrica em sólidos iônicos e eletrólitos: condutividade c.a. e espectroscopia de impedância.
-Propriedades magnéticas: susceptibilidade magnética c. a. e magnetização c.c. Curvas de histerese de materiais magnéticos macios e duros.
-Propriedades térmicas dos materiais: condutividade térmica, calor específico e expansão térmica.
-Propriedades ópticas: análise de Kramers-Konig, elipsometria espectroscópica e refletometria diferencial. Espectro óptico de metais puros, ligas metálicas, semicondutores e isolantes. Emissão de luz: emissão espontânea e emissão estimulada.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,32 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Experimentos desenvolvidos em laboratório didático, realização de relatórios para cada experimento e de testes sobre o experimento em estudo.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média aritmética de duas provas escritas, testes, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + P2 + TR)/3</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita e prática dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>HUMMEL, R. E. Electronic Properties of Materials, Springer, 2000.
-KASAP, S. Principles of Electronic Materials and Devices, McGRaw-Hill Science, 2005.
-SOLYMAR, L.; WALSH, D. Electrical Properties of Materials, Oxford University Press, 2009.
-VON HIPPEL, A. R. Dielectric Materials and Applications, Artech House, 1995.
-BARSOUKOV, E.; ROSS McDONALD, J. R. Impedance Spectroscopy: Theory, Experiment, and Applications, Wiley-Interscience, 2005.
-ROBERT, P. Electrical and Magnetic Properties of Materials, Artech House, 1998.
-SPEYER, R. Thermal Analysis of Materials, CRC Press, 1993.
-FOX, M. Optical Properties of Solids, Oxford University Press, 2010.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -497,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3230.xlsx
+++ b/docs/assets/disciplinas/LOM3230.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,6 +76,9 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>To present experimental techniques for the characterization of electrical, magnetic and thermal  properties of materials.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
     <t>Syllabus:</t>
   </si>
   <si>
+    <t>histerese de materiais magnéticos macios. Medidas de magnetostricção.Propriedades térmicas dos materiais:  expansão térmica.Electrical properties: electrical conductivity in pure metals, metallic alloys and semiconductors, and superconductors; Hall Effect; Ohm's Law and dependence on temperature.Magnetic properties: magnetic susceptibility and c.c. magnetization. Hysteresis curves of soft magnetic materials. Magnetostriction measurements.Thermal properties of materials: thermal expansion.</t>
+  </si>
+  <si>
     <t>Avaliação:</t>
   </si>
   <si>
@@ -109,7 +115,7 @@
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética de duas provas escritas, testes, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + P2 + TR)/3</t>
+    <t>Média aritmética das notas dos relatórios de cada experimento</t>
   </si>
   <si>
     <t>Bibliografia:</t>
@@ -597,31 +603,43 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -632,17 +650,23 @@
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -653,48 +677,48 @@
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3230.xlsx
+++ b/docs/assets/disciplinas/LOM3230.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar as técnicas experimentais de caracterização de propriedades elétricas, magnéticas, térmicas e ópticas de materiais.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>To present experimental techniques for the characterization of electrical, magnetic and thermal  properties of materials.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840726 - Cristina Bormio Nunes</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>To present experimental techniques for the characterization of electrical, magnetic and thermal  properties of materials.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Estudo das técnicas de caracterização de propriedades elétricas, magnéticas, térmicas e ópticas de materiais.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Propriedades elétricas: condutividade elétrica em metais puros, ligas metálicas e semicondutores,  e supercondutores; Efeito Hall; Lei de Ohm e dependência com a temperatura.Propriedades magnéticas: susceptibilidade magnética e magnetização c.c. Curvas de histerese de materiais magnéticos macios. Medidas de magnetostricção.Propriedades térmicas dos materiais:  expansão térmica.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,22 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Experimentos desenvolvidos em laboratório didático, realização de relatórios para cada experimento e de testes sobre o experimento em estudo.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Experimentos desenvolvidos em laboratório didático, realização de relatórios para cada experimento e de testes sobre o experimento em estudo.</t>
+    <t>Média aritmética das notas dos relatórios de cada experimento</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética das notas dos relatórios de cada experimento</t>
+    <t>Aplicação de uma prova escrita e prática dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aplicação de uma prova escrita e prática dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
+    <t>HUMMEL, R. E. Electronic Properties of Materials, Springer, 2000.RAYMOND A. SERWAY, CLEMENT J. MOSES, CURT A. MOYER. Modern Physics 3rd Edition,  Cengage Learning, Inc., 2005.SOLYMAR, L.; WALSH, D. Electrical Properties of Materials, Oxford University Press, 2009.NICOLA A. SPALDIN, Magnetic Materials, Fundamentals and Applications, SECOND EDITION, Cambridge University Press, 2011ROBERT, P. Electrical and Magnetic Properties of Materials, Artech House, 1998.SPEYER, R. Thermal Analysis of Materials, CRC Press, 1993.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -484,13 +493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -615,37 +624,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -659,66 +665,77 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
